--- a/assets/subcategoryimportfiles/allfields.xlsx
+++ b/assets/subcategoryimportfiles/allfields.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>sno</t>
   </si>
@@ -102,37 +102,6 @@
     <t>Image8</t>
   </si>
   <si>
-    <t>2 inch NA Display
-800 mAh Battery
-0 0 0 208MHz Processor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Warranty of 1 Year Available for Mobile and 6 Months for Accessories
-</t>
-  </si>
-  <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 days return policy
-</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
-  <si>
-    <t>dress_code</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>In Sales Package</t>
   </si>
   <si>
@@ -148,27 +117,44 @@
     <t>Model ID</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>useage</t>
-  </si>
-  <si>
     <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Writer Type</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>HP External DVD Writer</t>
+  </si>
+  <si>
+    <t>Suitable For All Brand Laptops And Desktops</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>CD/DVD</t>
+  </si>
+  <si>
+    <t>Portable</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>1 External DVD Writer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,24 +171,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F2F2F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -214,11 +186,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,54 +208,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,7 +560,7 @@
     <col min="30" max="31" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:37" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,10 +570,10 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -669,32 +621,32 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="U1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>37</v>
+      <c r="AB1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>20</v>
@@ -722,78 +674,52 @@
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5000</v>
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2899</v>
       </c>
       <c r="D2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="8">
         <v>100</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="F2"/>
+      <c r="G2" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="T2" t="s">
+        <v>37</v>
       </c>
       <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:XFD1 A1:N1 Q1:T1">
